--- a/Document/3.Report/김규하/테이블.xlsx
+++ b/Document/3.Report/김규하/테이블.xlsx
@@ -7,83 +7,25 @@
     <workbookView xWindow="480" yWindow="105" windowWidth="27975" windowHeight="12060"/>
   </bookViews>
   <sheets>
-    <sheet name="item_table" sheetId="1" r:id="rId1"/>
-    <sheet name="item_enum" sheetId="3" r:id="rId2"/>
-    <sheet name="buff_table" sheetId="4" r:id="rId3"/>
-    <sheet name="buff_enum" sheetId="5" r:id="rId4"/>
-    <sheet name="quest_table" sheetId="6" r:id="rId5"/>
-    <sheet name="quest_enum" sheetId="7" r:id="rId6"/>
+    <sheet name="ItemTable" sheetId="1" r:id="rId1"/>
+    <sheet name="ItemEnum" sheetId="3" r:id="rId2"/>
+    <sheet name="BuffTable" sheetId="4" r:id="rId3"/>
+    <sheet name="BuffEnum" sheetId="5" r:id="rId4"/>
+    <sheet name="QuestTable" sheetId="6" r:id="rId5"/>
+    <sheet name="QuestEnum" sheetId="7" r:id="rId6"/>
+    <sheet name="ReswardTable" sheetId="8" r:id="rId7"/>
+    <sheet name="RewardEnum" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="184">
   <si>
     <t>컬럼명</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>main_type</t>
-  </si>
-  <si>
-    <t>sub_type</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>price_type</t>
-  </si>
-  <si>
-    <t>purchase_price</t>
-  </si>
-  <si>
-    <t>sell_price</t>
-  </si>
-  <si>
-    <t>resell_price</t>
-  </si>
-  <si>
-    <t>growth_date</t>
-  </si>
-  <si>
-    <t>growth_date2</t>
-  </si>
-  <si>
-    <t>option_id_1</t>
-  </si>
-  <si>
-    <t>option_value_1</t>
-  </si>
-  <si>
-    <t>option_id_2</t>
-  </si>
-  <si>
-    <t>option_value_2</t>
-  </si>
-  <si>
-    <t>limit_date_type</t>
-  </si>
-  <si>
-    <t>limit_date_value</t>
-  </si>
-  <si>
-    <t>limit_count_type</t>
-  </si>
-  <si>
-    <t>limit_count_value</t>
-  </si>
-  <si>
     <t>데이터형</t>
   </si>
   <si>
@@ -96,9 +38,6 @@
     <t>byte</t>
   </si>
   <si>
-    <t>(자료형)</t>
-  </si>
-  <si>
     <t>cabbage seed</t>
   </si>
   <si>
@@ -186,9 +125,6 @@
     <t>green mushroom</t>
   </si>
   <si>
-    <t>enum_season</t>
-  </si>
-  <si>
     <t>없음</t>
   </si>
   <si>
@@ -207,9 +143,6 @@
     <t>상시</t>
   </si>
   <si>
-    <t>enum_grade</t>
-  </si>
-  <si>
     <t>별1개</t>
   </si>
   <si>
@@ -222,9 +155,6 @@
     <t>특수</t>
   </si>
   <si>
-    <t>enum_main</t>
-  </si>
-  <si>
     <t>장비</t>
   </si>
   <si>
@@ -234,9 +164,6 @@
     <t>재료</t>
   </si>
   <si>
-    <t>enum_sub</t>
-  </si>
-  <si>
     <t>생활 도구</t>
   </si>
   <si>
@@ -255,9 +182,6 @@
     <t>기타</t>
   </si>
   <si>
-    <t>enum_price_type</t>
-  </si>
-  <si>
     <t>골드</t>
   </si>
   <si>
@@ -267,9 +191,6 @@
     <t>경험치</t>
   </si>
   <si>
-    <t>enum_limt_data_type</t>
-  </si>
-  <si>
     <t>일간</t>
   </si>
   <si>
@@ -279,9 +200,6 @@
     <t>월간</t>
   </si>
   <si>
-    <t>enum_limit_count_type</t>
-  </si>
-  <si>
     <t>캐릭터</t>
   </si>
   <si>
@@ -296,42 +214,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>groupID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>byte</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>buff_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>체력회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,26 +234,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>buff_type_enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>체력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지속증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지속감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,10 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stat_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>byte</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마법공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,14 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>group_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;&gt; 쿨타임 공유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마력회복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,14 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quest_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quest_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>처치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -464,111 +322,379 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quest_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_condition_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quest_type_enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_condition_type_enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>퀘스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create_condition_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_condition_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_condition_check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Achievement conditions_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Achievement conditions_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward_type</t>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기 수확하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기를 5개 수확하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기 판매하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기를 5개 판매하세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절대증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절대감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 획득량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 숙련도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농장 경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 모두 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 중 1개 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 중 2개 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Season</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resell_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Growth_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Growth_date2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option_id_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option_value_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option_id_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option_value_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit_date_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit_date_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit_count_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit_count_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Season_enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade_enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main_enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub_enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price_type_enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limt_data_type_enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit_count_type_enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cool_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stat_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_type_enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stat_type_enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cool_time_enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create_condition_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create_condition_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create_condition_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target_conditions_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target_conditions_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target_conditions_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_get_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_ID_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_ID_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_type_enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create_condition_type_enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target_condition_type_enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_get_type_enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_item_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_skill_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>reward_type_enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호감도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quest_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딸기 수확하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딸기를 5개 수확하세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딸기 판매하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딸기를 5개 판매하세요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +702,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,8 +726,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,6 +752,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,9 +822,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -693,22 +837,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1007,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1020,141 +1170,139 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>20</v>
+      <c r="C2" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="2:22">
       <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="5">
         <v>12201001</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1201,7 +1349,7 @@
       <c r="S4" s="3">
         <v>0</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="14">
         <v>0</v>
       </c>
       <c r="U4" s="5">
@@ -1217,7 +1365,7 @@
         <v>12201002</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1264,7 +1412,7 @@
       <c r="S5" s="5">
         <v>0</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="14">
         <v>0</v>
       </c>
       <c r="U5" s="5">
@@ -1280,7 +1428,7 @@
         <v>12201003</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1318,7 +1466,7 @@
       <c r="P6" s="7">
         <v>0</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="11">
         <v>0</v>
       </c>
       <c r="R6" s="5">
@@ -1327,7 +1475,7 @@
       <c r="S6" s="3">
         <v>0</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="14">
         <v>0</v>
       </c>
       <c r="U6" s="5">
@@ -1343,7 +1491,7 @@
         <v>12201004</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1381,7 +1529,7 @@
       <c r="P7" s="7">
         <v>0</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="11">
         <v>0</v>
       </c>
       <c r="R7" s="5">
@@ -1390,7 +1538,7 @@
       <c r="S7" s="5">
         <v>0</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="14">
         <v>0</v>
       </c>
       <c r="U7" s="5">
@@ -1406,7 +1554,7 @@
         <v>12202101</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1453,7 +1601,7 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="14">
         <v>0</v>
       </c>
       <c r="U8" s="5">
@@ -1469,7 +1617,7 @@
         <v>12202201</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1516,7 +1664,7 @@
       <c r="S9" s="5">
         <v>0</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="14">
         <v>0</v>
       </c>
       <c r="U9" s="5">
@@ -1532,7 +1680,7 @@
         <v>12202301</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1579,7 +1727,7 @@
       <c r="S10" s="5">
         <v>0</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="14">
         <v>0</v>
       </c>
       <c r="U10" s="5">
@@ -1595,7 +1743,7 @@
         <v>12202102</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1642,7 +1790,7 @@
       <c r="S11" s="5">
         <v>0</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="14">
         <v>0</v>
       </c>
       <c r="U11" s="5">
@@ -1658,7 +1806,7 @@
         <v>12202202</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1705,7 +1853,7 @@
       <c r="S12" s="5">
         <v>0</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="14">
         <v>0</v>
       </c>
       <c r="U12" s="5">
@@ -1721,7 +1869,7 @@
         <v>12202302</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -1768,7 +1916,7 @@
       <c r="S13" s="5">
         <v>0</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="14">
         <v>0</v>
       </c>
       <c r="U13" s="5">
@@ -1784,7 +1932,7 @@
         <v>12202103</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -1831,7 +1979,7 @@
       <c r="S14" s="5">
         <v>0</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="14">
         <v>0</v>
       </c>
       <c r="U14" s="5">
@@ -1847,7 +1995,7 @@
         <v>12202203</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -1894,7 +2042,7 @@
       <c r="S15" s="5">
         <v>0</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="14">
         <v>0</v>
       </c>
       <c r="U15" s="5">
@@ -1910,7 +2058,7 @@
         <v>12202303</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
@@ -1957,7 +2105,7 @@
       <c r="S16" s="6">
         <v>0</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="7">
         <v>0</v>
       </c>
       <c r="U16" s="7">
@@ -1973,7 +2121,7 @@
         <v>12202104</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
@@ -2020,7 +2168,7 @@
       <c r="S17" s="6">
         <v>0</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="7">
         <v>0</v>
       </c>
       <c r="U17" s="7">
@@ -2036,7 +2184,7 @@
         <v>12202204</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E18" s="7">
         <v>1</v>
@@ -2083,7 +2231,7 @@
       <c r="S18" s="7">
         <v>0</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="14">
         <v>0</v>
       </c>
       <c r="U18" s="7">
@@ -2094,12 +2242,12 @@
       </c>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="9"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="7">
         <v>12202304</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
@@ -2146,7 +2294,7 @@
       <c r="S19" s="7">
         <v>0</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="14">
         <v>0</v>
       </c>
       <c r="U19" s="7">
@@ -2157,12 +2305,12 @@
       </c>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="7">
         <v>22201001</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E20" s="7">
         <v>2</v>
@@ -2209,7 +2357,7 @@
       <c r="S20" s="7">
         <v>0</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="14">
         <v>0</v>
       </c>
       <c r="U20" s="7">
@@ -2225,7 +2373,7 @@
         <v>22201002</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
@@ -2272,7 +2420,7 @@
       <c r="S21" s="7">
         <v>0</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T21" s="14">
         <v>0</v>
       </c>
       <c r="U21" s="7">
@@ -2288,7 +2436,7 @@
         <v>22201003</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E22" s="7">
         <v>2</v>
@@ -2335,7 +2483,7 @@
       <c r="S22" s="7">
         <v>0</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22" s="14">
         <v>0</v>
       </c>
       <c r="U22" s="7">
@@ -2351,7 +2499,7 @@
         <v>22201004</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E23" s="7">
         <v>2</v>
@@ -2398,7 +2546,7 @@
       <c r="S23" s="7">
         <v>0</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="14">
         <v>0</v>
       </c>
       <c r="U23" s="7">
@@ -2414,7 +2562,7 @@
         <v>22202101</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E24" s="7">
         <v>2</v>
@@ -2461,7 +2609,7 @@
       <c r="S24" s="7">
         <v>0</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T24" s="14">
         <v>0</v>
       </c>
       <c r="U24" s="7">
@@ -2477,7 +2625,7 @@
         <v>22202201</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E25" s="7">
         <v>2</v>
@@ -2524,7 +2672,7 @@
       <c r="S25" s="7">
         <v>0</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T25" s="14">
         <v>0</v>
       </c>
       <c r="U25" s="7">
@@ -2540,7 +2688,7 @@
         <v>22202301</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E26" s="7">
         <v>2</v>
@@ -2587,7 +2735,7 @@
       <c r="S26" s="7">
         <v>0</v>
       </c>
-      <c r="T26" s="8">
+      <c r="T26" s="14">
         <v>0</v>
       </c>
       <c r="U26" s="7">
@@ -2603,7 +2751,7 @@
         <v>22202102</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E27" s="7">
         <v>2</v>
@@ -2650,7 +2798,7 @@
       <c r="S27" s="7">
         <v>0</v>
       </c>
-      <c r="T27" s="8">
+      <c r="T27" s="14">
         <v>0</v>
       </c>
       <c r="U27" s="7">
@@ -2666,7 +2814,7 @@
         <v>22202202</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E28" s="7">
         <v>2</v>
@@ -2713,7 +2861,7 @@
       <c r="S28" s="7">
         <v>0</v>
       </c>
-      <c r="T28" s="8">
+      <c r="T28" s="14">
         <v>0</v>
       </c>
       <c r="U28" s="7">
@@ -2729,7 +2877,7 @@
         <v>22202302</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E29" s="7">
         <v>2</v>
@@ -2776,7 +2924,7 @@
       <c r="S29" s="7">
         <v>0</v>
       </c>
-      <c r="T29" s="8">
+      <c r="T29" s="14">
         <v>0</v>
       </c>
       <c r="U29" s="7">
@@ -2792,7 +2940,7 @@
         <v>22202103</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E30" s="7">
         <v>2</v>
@@ -2839,7 +2987,7 @@
       <c r="S30" s="7">
         <v>0</v>
       </c>
-      <c r="T30" s="8">
+      <c r="T30" s="14">
         <v>0</v>
       </c>
       <c r="U30" s="7">
@@ -2855,7 +3003,7 @@
         <v>22202203</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E31" s="7">
         <v>2</v>
@@ -2902,7 +3050,7 @@
       <c r="S31" s="7">
         <v>0</v>
       </c>
-      <c r="T31" s="8">
+      <c r="T31" s="14">
         <v>0</v>
       </c>
       <c r="U31" s="7">
@@ -2918,7 +3066,7 @@
         <v>22202303</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E32" s="7">
         <v>2</v>
@@ -2965,7 +3113,7 @@
       <c r="S32" s="7">
         <v>0</v>
       </c>
-      <c r="T32" s="8">
+      <c r="T32" s="14">
         <v>0</v>
       </c>
       <c r="U32" s="7">
@@ -2981,7 +3129,7 @@
         <v>22202104</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E33" s="7">
         <v>2</v>
@@ -3028,7 +3176,7 @@
       <c r="S33" s="7">
         <v>0</v>
       </c>
-      <c r="T33" s="8">
+      <c r="T33" s="14">
         <v>0</v>
       </c>
       <c r="U33" s="7">
@@ -3044,7 +3192,7 @@
         <v>22202204</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E34" s="7">
         <v>2</v>
@@ -3091,7 +3239,7 @@
       <c r="S34" s="7">
         <v>0</v>
       </c>
-      <c r="T34" s="8">
+      <c r="T34" s="14">
         <v>0</v>
       </c>
       <c r="U34" s="7">
@@ -3107,7 +3255,7 @@
         <v>22202304</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E35" s="7">
         <v>2</v>
@@ -3154,7 +3302,7 @@
       <c r="S35" s="7">
         <v>0</v>
       </c>
-      <c r="T35" s="8">
+      <c r="T35" s="14">
         <v>0</v>
       </c>
       <c r="U35" s="7">
@@ -3170,7 +3318,7 @@
         <v>32201001</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E36" s="7">
         <v>3</v>
@@ -3217,7 +3365,7 @@
       <c r="S36" s="7">
         <v>0</v>
       </c>
-      <c r="T36" s="8">
+      <c r="T36" s="14">
         <v>0</v>
       </c>
       <c r="U36" s="7">
@@ -3233,7 +3381,7 @@
         <v>32201002</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E37" s="7">
         <v>3</v>
@@ -3280,7 +3428,7 @@
       <c r="S37" s="7">
         <v>0</v>
       </c>
-      <c r="T37" s="8">
+      <c r="T37" s="14">
         <v>0</v>
       </c>
       <c r="U37" s="7">
@@ -3296,7 +3444,7 @@
         <v>32201003</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E38" s="7">
         <v>3</v>
@@ -3343,7 +3491,7 @@
       <c r="S38" s="7">
         <v>0</v>
       </c>
-      <c r="T38" s="8">
+      <c r="T38" s="14">
         <v>0</v>
       </c>
       <c r="U38" s="7">
@@ -3359,7 +3507,7 @@
         <v>32201004</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E39" s="7">
         <v>3</v>
@@ -3406,7 +3554,7 @@
       <c r="S39" s="7">
         <v>0</v>
       </c>
-      <c r="T39" s="8">
+      <c r="T39" s="14">
         <v>0</v>
       </c>
       <c r="U39" s="7">
@@ -3422,7 +3570,7 @@
         <v>32202101</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E40" s="7">
         <v>3</v>
@@ -3469,7 +3617,7 @@
       <c r="S40" s="7">
         <v>0</v>
       </c>
-      <c r="T40" s="8">
+      <c r="T40" s="14">
         <v>0</v>
       </c>
       <c r="U40" s="7">
@@ -3485,7 +3633,7 @@
         <v>32202201</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E41" s="7">
         <v>3</v>
@@ -3532,7 +3680,7 @@
       <c r="S41" s="7">
         <v>0</v>
       </c>
-      <c r="T41" s="8">
+      <c r="T41" s="14">
         <v>0</v>
       </c>
       <c r="U41" s="7">
@@ -3548,7 +3696,7 @@
         <v>32202301</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E42" s="7">
         <v>3</v>
@@ -3595,7 +3743,7 @@
       <c r="S42" s="7">
         <v>0</v>
       </c>
-      <c r="T42" s="8">
+      <c r="T42" s="14">
         <v>0</v>
       </c>
       <c r="U42" s="7">
@@ -3611,7 +3759,7 @@
         <v>32202102</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E43" s="7">
         <v>3</v>
@@ -3658,7 +3806,7 @@
       <c r="S43" s="7">
         <v>0</v>
       </c>
-      <c r="T43" s="8">
+      <c r="T43" s="14">
         <v>0</v>
       </c>
       <c r="U43" s="7">
@@ -3674,7 +3822,7 @@
         <v>32202202</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E44" s="7">
         <v>3</v>
@@ -3721,7 +3869,7 @@
       <c r="S44" s="7">
         <v>0</v>
       </c>
-      <c r="T44" s="8">
+      <c r="T44" s="14">
         <v>0</v>
       </c>
       <c r="U44" s="7">
@@ -3737,7 +3885,7 @@
         <v>32202302</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E45" s="7">
         <v>3</v>
@@ -3784,7 +3932,7 @@
       <c r="S45" s="7">
         <v>0</v>
       </c>
-      <c r="T45" s="8">
+      <c r="T45" s="14">
         <v>0</v>
       </c>
       <c r="U45" s="7">
@@ -3800,7 +3948,7 @@
         <v>32202103</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E46" s="7">
         <v>3</v>
@@ -3847,7 +3995,7 @@
       <c r="S46" s="7">
         <v>0</v>
       </c>
-      <c r="T46" s="8">
+      <c r="T46" s="14">
         <v>0</v>
       </c>
       <c r="U46" s="7">
@@ -3863,7 +4011,7 @@
         <v>32202203</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E47" s="7">
         <v>3</v>
@@ -3910,7 +4058,7 @@
       <c r="S47" s="7">
         <v>0</v>
       </c>
-      <c r="T47" s="8">
+      <c r="T47" s="14">
         <v>0</v>
       </c>
       <c r="U47" s="7">
@@ -3926,7 +4074,7 @@
         <v>32202303</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E48" s="7">
         <v>3</v>
@@ -3973,7 +4121,7 @@
       <c r="S48" s="7">
         <v>0</v>
       </c>
-      <c r="T48" s="8">
+      <c r="T48" s="14">
         <v>0</v>
       </c>
       <c r="U48" s="7">
@@ -3989,7 +4137,7 @@
         <v>32202104</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E49" s="7">
         <v>3</v>
@@ -4036,7 +4184,7 @@
       <c r="S49" s="7">
         <v>0</v>
       </c>
-      <c r="T49" s="8">
+      <c r="T49" s="14">
         <v>0</v>
       </c>
       <c r="U49" s="7">
@@ -4052,7 +4200,7 @@
         <v>32202204</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E50" s="7">
         <v>3</v>
@@ -4099,7 +4247,7 @@
       <c r="S50" s="7">
         <v>0</v>
       </c>
-      <c r="T50" s="8">
+      <c r="T50" s="14">
         <v>0</v>
       </c>
       <c r="U50" s="7">
@@ -4115,7 +4263,7 @@
         <v>32202304</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E51" s="7">
         <v>3</v>
@@ -4162,7 +4310,7 @@
       <c r="S51" s="7">
         <v>0</v>
       </c>
-      <c r="T51" s="8">
+      <c r="T51" s="14">
         <v>0</v>
       </c>
       <c r="U51" s="7">
@@ -4178,7 +4326,7 @@
         <v>92201990</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E52" s="7">
         <v>9</v>
@@ -4225,7 +4373,7 @@
       <c r="S52" s="7">
         <v>0</v>
       </c>
-      <c r="T52" s="8">
+      <c r="T52" s="14">
         <v>0</v>
       </c>
       <c r="U52" s="7">
@@ -4241,7 +4389,7 @@
         <v>93302990</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E53" s="7">
         <v>9</v>
@@ -4288,7 +4436,7 @@
       <c r="S53" s="7">
         <v>0</v>
       </c>
-      <c r="T53" s="8">
+      <c r="T53" s="14">
         <v>0</v>
       </c>
       <c r="U53" s="7">
@@ -4304,7 +4452,7 @@
         <v>92203101</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E54" s="7">
         <v>9</v>
@@ -4351,7 +4499,7 @@
       <c r="S54" s="7">
         <v>0</v>
       </c>
-      <c r="T54" s="8">
+      <c r="T54" s="14">
         <v>0</v>
       </c>
       <c r="U54" s="7">
@@ -4367,7 +4515,7 @@
         <v>92203201</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E55" s="7">
         <v>9</v>
@@ -4414,7 +4562,7 @@
       <c r="S55" s="7">
         <v>0</v>
       </c>
-      <c r="T55" s="8">
+      <c r="T55" s="14">
         <v>0</v>
       </c>
       <c r="U55" s="7">
@@ -4430,7 +4578,7 @@
         <v>92203301</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E56" s="7">
         <v>9</v>
@@ -4477,7 +4625,7 @@
       <c r="S56" s="7">
         <v>0</v>
       </c>
-      <c r="T56" s="8">
+      <c r="T56" s="14">
         <v>0</v>
       </c>
       <c r="U56" s="7">
@@ -4493,7 +4641,7 @@
         <v>92203102</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E57" s="7">
         <v>9</v>
@@ -4540,7 +4688,7 @@
       <c r="S57" s="7">
         <v>0</v>
       </c>
-      <c r="T57" s="8">
+      <c r="T57" s="14">
         <v>0</v>
       </c>
       <c r="U57" s="7">
@@ -4556,7 +4704,7 @@
         <v>92203202</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E58" s="7">
         <v>9</v>
@@ -4603,7 +4751,7 @@
       <c r="S58" s="7">
         <v>0</v>
       </c>
-      <c r="T58" s="8">
+      <c r="T58" s="14">
         <v>0</v>
       </c>
       <c r="U58" s="7">
@@ -4619,7 +4767,7 @@
         <v>92203302</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E59" s="7">
         <v>9</v>
@@ -4666,7 +4814,7 @@
       <c r="S59" s="7">
         <v>0</v>
       </c>
-      <c r="T59" s="8">
+      <c r="T59" s="14">
         <v>0</v>
       </c>
       <c r="U59" s="7">
@@ -4682,7 +4830,7 @@
         <v>92203103</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E60" s="7">
         <v>9</v>
@@ -4729,7 +4877,7 @@
       <c r="S60" s="7">
         <v>0</v>
       </c>
-      <c r="T60" s="8">
+      <c r="T60" s="14">
         <v>0</v>
       </c>
       <c r="U60" s="7">
@@ -4745,7 +4893,7 @@
         <v>92203203</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E61" s="7">
         <v>9</v>
@@ -4792,7 +4940,7 @@
       <c r="S61" s="7">
         <v>0</v>
       </c>
-      <c r="T61" s="8">
+      <c r="T61" s="14">
         <v>0</v>
       </c>
       <c r="U61" s="7">
@@ -4808,7 +4956,7 @@
         <v>92203303</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E62" s="7">
         <v>9</v>
@@ -4855,7 +5003,7 @@
       <c r="S62" s="7">
         <v>0</v>
       </c>
-      <c r="T62" s="8">
+      <c r="T62" s="14">
         <v>0</v>
       </c>
       <c r="U62" s="7">
@@ -4868,318 +5016,283 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O16"/>
+  <dimension ref="B1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="21.125" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
     <col min="12" max="12" width="11.25" customWidth="1"/>
-    <col min="14" max="14" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" s="10" customFormat="1"/>
-    <row r="2" spans="2:15">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="2:12" s="9" customFormat="1"/>
+    <row r="2" spans="2:12">
+      <c r="B2" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="H2" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="K2" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="10">
+        <v>101</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="12">
+        <v>2</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="10">
+        <v>201</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="12">
+        <v>3</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="10">
+        <v>202</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="10">
+        <v>203</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="10">
+        <v>99</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="10">
+        <v>301</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="10">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="10">
+        <v>302</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="E11" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="H11" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="10">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="11">
+        <v>2</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="10">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="E2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="H2" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="K2" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="15"/>
-      <c r="N2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="11">
-        <v>101</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="11">
-        <v>0</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="13">
-        <v>2</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="11">
-        <v>201</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="11">
-        <v>1</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="E15" s="10">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="11">
-        <v>2</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="13">
-        <v>3</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="11">
-        <v>202</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="11">
-        <v>2</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="11">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="11">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="11">
-        <v>203</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6" s="11">
-        <v>3</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="11">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="H15" s="11">
         <v>99</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="11">
-        <v>301</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="11">
+      <c r="I15" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="10">
         <v>99</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="11">
-        <v>9</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="11">
-        <v>302</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="E11" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="H11" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="11">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="11">
-        <v>1</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="12">
-        <v>1</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="11">
-        <v>2</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="11">
-        <v>2</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="12">
-        <v>2</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="11">
-        <v>3</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="11">
-        <v>3</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="C16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="10">
         <v>99</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="11">
-        <v>99</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="11">
-        <v>99</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>66</v>
+      <c r="F16" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -5192,156 +5305,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="C4" s="16">
+        <v>1011111</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="16">
+        <v>101</v>
+      </c>
+      <c r="G4" s="16">
+        <v>11</v>
+      </c>
+      <c r="H4" s="16">
+        <v>11</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="C5" s="16">
+        <v>1021211</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="16">
+        <v>102</v>
+      </c>
+      <c r="G5" s="16">
+        <v>12</v>
+      </c>
+      <c r="H5" s="16">
+        <v>11</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="C6" s="16">
+        <v>3013111</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="16">
+        <v>301</v>
+      </c>
+      <c r="G6" s="16">
+        <v>31</v>
+      </c>
+      <c r="H6" s="16">
+        <v>11</v>
+      </c>
+      <c r="I6" s="16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="C7" s="16">
+        <v>9019113</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="16">
+        <v>901</v>
+      </c>
+      <c r="G7" s="16">
         <v>91</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="C4">
-        <v>101</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="C5">
-        <v>201</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5">
-        <v>200</v>
-      </c>
-      <c r="G5" s="10">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="C6">
-        <v>601</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6">
-        <v>600</v>
-      </c>
-      <c r="G6" s="10">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="C7">
-        <v>701</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7">
-        <v>700</v>
-      </c>
-      <c r="G7" s="10">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="16">
+        <v>13</v>
+      </c>
+      <c r="I7" s="16">
         <v>3600</v>
       </c>
     </row>
@@ -5354,142 +5470,182 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F18"/>
+  <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:12">
+      <c r="B2" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="H2" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="16">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="16">
+        <v>11</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="16">
+        <v>100</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10" t="s">
+    <row r="4" spans="2:12">
+      <c r="B4" s="16">
+        <v>12</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="16">
+        <v>12</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="16">
+        <v>101</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="2:12" s="9" customFormat="1">
+      <c r="B5" s="16">
+        <v>13</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="16">
+        <v>21</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="16">
+        <v>201</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10" t="s">
+    <row r="6" spans="2:12">
+      <c r="B6" s="16">
+        <v>21</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="16">
+        <v>22</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="16">
+        <v>202</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="2:12">
+      <c r="B7" s="16">
+        <v>22</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="16">
+        <v>23</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="16">
+        <v>203</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10" t="s">
+    <row r="8" spans="2:12">
+      <c r="B8" s="16">
+        <v>23</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="16">
+        <v>31</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="16">
+        <v>301</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="10" t="s">
+    <row r="9" spans="2:12">
+      <c r="E9" s="16">
+        <v>91</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="16">
+        <v>901</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="E10" s="16">
+        <v>92</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="16">
+        <v>902</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -5500,195 +5656,208 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:O5"/>
+  <dimension ref="B2:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.75" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.875" style="9" customWidth="1"/>
     <col min="11" max="11" width="28.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.625" customWidth="1"/>
-    <col min="15" max="15" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="15" max="15" width="14.25" customWidth="1"/>
+    <col min="16" max="16" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="C4">
+    <row r="2" spans="2:16">
+      <c r="B2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="C4" s="16">
+        <v>10010</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="12">
+        <v>12202104</v>
+      </c>
+      <c r="L4" s="12">
+        <v>5</v>
+      </c>
+      <c r="M4" s="16">
+        <v>1</v>
+      </c>
+      <c r="N4" s="16">
+        <v>10011</v>
+      </c>
+      <c r="O4" s="16">
+        <v>10012</v>
+      </c>
+      <c r="P4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="C5" s="16">
+        <v>10020</v>
+      </c>
+      <c r="D5" s="16">
+        <v>5</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
         <v>1001</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="16">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18">
-        <v>1</v>
-      </c>
-      <c r="K4" s="16">
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>3</v>
+      </c>
+      <c r="K5" s="12">
         <v>12202104</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L5" s="7">
         <v>5</v>
       </c>
-      <c r="M4" s="18">
-        <v>3</v>
-      </c>
-      <c r="N4" s="19">
-        <v>12201003</v>
-      </c>
-      <c r="O4" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="C5">
-        <v>1002</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>1001</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="16">
-        <v>12202104</v>
-      </c>
-      <c r="L5" s="18">
-        <v>5</v>
-      </c>
-      <c r="M5" s="18">
-        <v>2</v>
-      </c>
-      <c r="N5" s="18">
-        <v>0</v>
-      </c>
-      <c r="O5" s="18">
-        <v>500</v>
+      <c r="M5" s="16">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5699,149 +5868,349 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C20"/>
+  <dimension ref="B2:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="H2" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="K2" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="16">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="16">
+        <v>1</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="16">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="16">
+        <v>2</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="16">
+        <v>2</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="16">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="16">
+        <v>3</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="16">
+        <v>3</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="16">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="16">
+        <v>4</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="16">
+        <v>4</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="H8" s="16">
+        <v>5</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" s="9" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:G5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="C4" s="16">
+        <v>10011</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>12201003</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="C5" s="16">
+        <v>10012</v>
+      </c>
+      <c r="D5" s="16">
+        <v>3</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="B2" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>130</v>
+      <c r="B3" s="16">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>131</v>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5">
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6">
+      <c r="C6" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="16">
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7">
+      <c r="C7" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="16">
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" s="10" customFormat="1">
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>150</v>
+      <c r="C8" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="16">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Document/3.Report/김규하/테이블.xlsx
+++ b/Document/3.Report/김규하/테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\바르게살자\Project_GoodLife\Document\3.Report\김규하\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B573FA-D1A8-4FB8-A911-1A3C2FE35002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C273A60-0434-43FA-8DA5-835A56A9E04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemEnum" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="199">
   <si>
     <t>int</t>
   </si>
@@ -267,46 +267,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Main_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sub_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Price_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purchase_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sell_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Option_id_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Option_value_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Option_id_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Option_value_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Grade_enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,22 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cool_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stat_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Buff_type_enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,34 +300,6 @@
   </si>
   <si>
     <t>Quest_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quest_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quest_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quest_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target_conditions_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target_conditions_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target_conditions_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reward_get_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -480,10 +400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Reward_get_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>byte</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -524,10 +440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Reward_type_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rward_Value_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,10 +452,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Reward_type_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rward_Value_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -552,10 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Reward_type_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rward_Value_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,10 +468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Reward_type_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rward_Value_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -576,10 +476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Reward_type_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rward_Value_5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,10 +496,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type_enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,26 +567,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cool_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Territory_item_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Npc_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -751,10 +627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>korean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cabbage seed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -820,6 +692,126 @@
   </si>
   <si>
     <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option_Id_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option_Value_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option_Id_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option_Value_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cool_Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stat_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff_Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target_Conditions_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target_Conditions_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target_Conditions_Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_Get_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_Get_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_Type_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_Type_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_Type_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_Type_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward_Type_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase_Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell_Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Territory_Item_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition_Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,18 +1081,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1108,6 +1094,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1116,7 +1105,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1475,529 +1467,529 @@
   <sheetData>
     <row r="1" spans="2:14" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B1" s="36" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="2:14" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="40"/>
+      <c r="B3" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="41"/>
       <c r="D3" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="I3" s="40"/>
-      <c r="K3" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="40"/>
+        <v>135</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="K3" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="41"/>
       <c r="M3" s="10" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="41">
+      <c r="B4" s="48">
         <v>1</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="41">
+        <v>76</v>
+      </c>
+      <c r="F4" s="48">
         <v>101</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="41"/>
-      <c r="K4" s="41">
-        <v>0</v>
-      </c>
-      <c r="L4" s="41"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="48"/>
+      <c r="K4" s="48">
+        <v>0</v>
+      </c>
+      <c r="L4" s="48"/>
       <c r="M4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="42">
+      <c r="B5" s="49">
         <v>2</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="41">
+        <v>77</v>
+      </c>
+      <c r="F5" s="48">
         <v>102</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="41"/>
-      <c r="K5" s="41">
+      <c r="G5" s="48"/>
+      <c r="H5" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="48"/>
+      <c r="K5" s="48">
         <v>1</v>
       </c>
-      <c r="L5" s="41"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="42">
+      <c r="B6" s="49">
         <v>3</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="41">
+        <v>78</v>
+      </c>
+      <c r="F6" s="48">
         <v>103</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="41"/>
-      <c r="K6" s="41">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="48"/>
+      <c r="K6" s="48">
         <v>2</v>
       </c>
-      <c r="L6" s="41"/>
+      <c r="L6" s="48"/>
       <c r="M6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F7" s="41">
+      <c r="F7" s="48">
         <v>201</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="41"/>
-      <c r="K7" s="41">
+      <c r="G7" s="48"/>
+      <c r="H7" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="48"/>
+      <c r="K7" s="48">
         <v>3</v>
       </c>
-      <c r="L7" s="41"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F8" s="41">
+      <c r="F8" s="48">
         <v>202</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="41"/>
-      <c r="K8" s="41">
+      <c r="G8" s="48"/>
+      <c r="H8" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="48"/>
+      <c r="K8" s="48">
         <v>99</v>
       </c>
-      <c r="L8" s="41"/>
+      <c r="L8" s="48"/>
       <c r="M8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F9" s="41">
+      <c r="F9" s="48">
         <v>301</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="41"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="48"/>
     </row>
     <row r="13" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B13" s="36" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="2:14" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B14" s="36"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="40"/>
+      <c r="B15" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="41"/>
       <c r="D15" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="I15" s="40"/>
-      <c r="K15" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="N15" s="40"/>
+        <v>135</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="K15" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="41"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="43">
+      <c r="B16" s="40">
         <v>11</v>
       </c>
-      <c r="C16" s="43"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="40">
         <v>11</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="43"/>
-      <c r="K16" s="43">
+      <c r="G16" s="40"/>
+      <c r="H16" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="40"/>
+      <c r="K16" s="40">
         <v>100</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="N16" s="43"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" s="40"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="43">
+      <c r="B17" s="40">
         <v>12</v>
       </c>
-      <c r="C17" s="43"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="40">
         <v>12</v>
       </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" s="43"/>
-      <c r="K17" s="43">
+      <c r="G17" s="40"/>
+      <c r="H17" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="40"/>
+      <c r="K17" s="40">
         <v>101</v>
       </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="N17" s="43"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" s="40"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="43">
+      <c r="B18" s="40">
         <v>13</v>
       </c>
-      <c r="C18" s="43"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="43">
+      <c r="F18" s="40">
         <v>21</v>
       </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43" t="s">
+      <c r="G18" s="40"/>
+      <c r="H18" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="43"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="43">
+      <c r="K18" s="40">
         <v>201</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43" t="s">
+      <c r="L18" s="40"/>
+      <c r="M18" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="N18" s="43"/>
+      <c r="N18" s="40"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="43">
+      <c r="B19" s="40">
         <v>21</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="40">
         <v>22</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43" t="s">
+      <c r="G19" s="40"/>
+      <c r="H19" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="K19" s="43">
+      <c r="I19" s="40"/>
+      <c r="K19" s="40">
         <v>202</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43" t="s">
+      <c r="L19" s="40"/>
+      <c r="M19" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="43"/>
+      <c r="N19" s="40"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="43">
+      <c r="B20" s="40">
         <v>22</v>
       </c>
-      <c r="C20" s="43"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="40">
         <v>23</v>
       </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43" t="s">
+      <c r="G20" s="40"/>
+      <c r="H20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="K20" s="43">
+      <c r="I20" s="40"/>
+      <c r="K20" s="40">
         <v>203</v>
       </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43" t="s">
+      <c r="L20" s="40"/>
+      <c r="M20" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="N20" s="43"/>
+      <c r="N20" s="40"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="43">
+      <c r="B21" s="40">
         <v>23</v>
       </c>
-      <c r="C21" s="43"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="40">
         <v>31</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43" t="s">
+      <c r="G21" s="40"/>
+      <c r="H21" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="K21" s="43">
+      <c r="I21" s="40"/>
+      <c r="K21" s="40">
         <v>301</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43" t="s">
+      <c r="L21" s="40"/>
+      <c r="M21" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="43"/>
+      <c r="N21" s="40"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F22" s="43">
+      <c r="F22" s="40">
         <v>91</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43" t="s">
+      <c r="G22" s="40"/>
+      <c r="H22" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="K22" s="43">
+      <c r="I22" s="40"/>
+      <c r="K22" s="40">
         <v>901</v>
       </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43" t="s">
+      <c r="L22" s="40"/>
+      <c r="M22" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="43"/>
+      <c r="N22" s="40"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F23" s="43">
+      <c r="F23" s="40">
         <v>92</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43" t="s">
+      <c r="G23" s="40"/>
+      <c r="H23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="K23" s="43">
+      <c r="I23" s="40"/>
+      <c r="K23" s="40">
         <v>902</v>
       </c>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43" t="s">
+      <c r="L23" s="40"/>
+      <c r="M23" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="43"/>
+      <c r="N23" s="40"/>
     </row>
     <row r="27" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B27" s="36" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="40"/>
+      <c r="B29" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="41"/>
       <c r="D29" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
+        <v>135</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
       <c r="I29" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="K29" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="O29" s="40"/>
+        <v>135</v>
+      </c>
+      <c r="K29" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="O29" s="41"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="43">
+      <c r="B30" s="40">
         <v>1</v>
       </c>
-      <c r="C30" s="43"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="43">
-        <v>0</v>
-      </c>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
+      <c r="F30" s="40">
+        <v>0</v>
+      </c>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="43">
-        <v>0</v>
-      </c>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43" t="s">
+      <c r="K30" s="40">
+        <v>0</v>
+      </c>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="O30" s="43"/>
+      <c r="O30" s="40"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="43">
+      <c r="B31" s="40">
         <v>2</v>
       </c>
-      <c r="C31" s="43"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="40">
         <v>1</v>
       </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K31" s="43">
+      <c r="K31" s="40">
         <v>1</v>
       </c>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43" t="s">
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="O31" s="43"/>
+      <c r="O31" s="40"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="43">
+      <c r="B32" s="40">
         <v>3</v>
       </c>
-      <c r="C32" s="43"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F32" s="40">
         <v>2</v>
       </c>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K32" s="43">
+      <c r="K32" s="40">
         <v>2</v>
       </c>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43" t="s">
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="O32" s="43"/>
+      <c r="O32" s="40"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="43">
+      <c r="B33" s="40">
         <v>4</v>
       </c>
-      <c r="C33" s="43"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="40">
         <v>3</v>
       </c>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K33" s="43">
+      <c r="K33" s="40">
         <v>3</v>
       </c>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43" t="s">
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="O33" s="43"/>
+      <c r="O33" s="40"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="43">
+      <c r="B34" s="40">
         <v>5</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="40">
         <v>4</v>
       </c>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
       <c r="I34" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F35" s="43">
+      <c r="F35" s="40">
         <v>5</v>
       </c>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="12" t="s">
         <v>54</v>
       </c>
@@ -2007,13 +1999,13 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="44">
+      <c r="F36" s="42">
         <v>6</v>
       </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
       <c r="I36" s="13" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -2024,212 +2016,212 @@
     </row>
     <row r="39" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B39" s="36" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
+      <c r="B41" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
       <c r="K41" s="8" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="L41" s="8"/>
-      <c r="M41" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="P41" s="40"/>
+      <c r="M41" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="P41" s="41"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="43">
-        <v>0</v>
-      </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="K42" s="43">
-        <v>0</v>
-      </c>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43" t="s">
+      <c r="B42" s="40">
+        <v>0</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="K42" s="40">
+        <v>0</v>
+      </c>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="P42" s="43"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="P42" s="40"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="45">
+      <c r="B43" s="43">
         <v>10</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="46"/>
-      <c r="K43" s="43">
+      <c r="C43" s="45"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="44"/>
+      <c r="K43" s="40">
         <v>1</v>
       </c>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43" t="s">
+      <c r="L43" s="40"/>
+      <c r="M43" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P43" s="43"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="P43" s="40"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="43">
+      <c r="B44" s="40">
         <v>11</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="K44" s="43">
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="K44" s="40">
         <v>2</v>
       </c>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43" t="s">
+      <c r="L44" s="40"/>
+      <c r="M44" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="P44" s="43"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="P44" s="40"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="43">
+      <c r="B45" s="40">
         <v>12</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="K45" s="47">
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="K45" s="46">
         <v>3</v>
       </c>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47" t="s">
+      <c r="L45" s="46"/>
+      <c r="M45" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N45" s="47"/>
-      <c r="O45" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="P45" s="48"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="P45" s="47"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="43">
+      <c r="B46" s="40">
         <v>13</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="47"/>
-      <c r="P46" s="47"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="43">
+      <c r="B47" s="40">
         <v>21</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="K47" s="45">
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="K47" s="43">
         <v>4</v>
       </c>
-      <c r="L47" s="46"/>
-      <c r="M47" s="45" t="s">
+      <c r="L47" s="44"/>
+      <c r="M47" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="N47" s="46"/>
-      <c r="O47" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="P47" s="46"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="P47" s="44"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="43">
+      <c r="B48" s="40">
         <v>22</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="43">
+      <c r="B49" s="40">
         <v>23</v>
       </c>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
     </row>
     <row r="50" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="38"/>
@@ -2253,7 +2245,7 @@
     </row>
     <row r="52" spans="2:9" s="18" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B52" s="36" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
@@ -2284,12 +2276,12 @@
       <c r="I54" s="38"/>
     </row>
     <row r="55" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="40"/>
+      <c r="B55" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="41"/>
       <c r="D55" s="10" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E55" s="38"/>
       <c r="F55" s="38"/>
@@ -2298,10 +2290,10 @@
       <c r="I55" s="38"/>
     </row>
     <row r="56" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="41">
-        <v>0</v>
-      </c>
-      <c r="C56" s="41"/>
+      <c r="B56" s="48">
+        <v>0</v>
+      </c>
+      <c r="C56" s="48"/>
       <c r="D56" s="11" t="s">
         <v>3</v>
       </c>
@@ -2312,10 +2304,10 @@
       <c r="I56" s="38"/>
     </row>
     <row r="57" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="41">
+      <c r="B57" s="48">
         <v>1</v>
       </c>
-      <c r="C57" s="41"/>
+      <c r="C57" s="48"/>
       <c r="D57" s="11" t="s">
         <v>8</v>
       </c>
@@ -2326,10 +2318,10 @@
       <c r="I57" s="38"/>
     </row>
     <row r="58" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="41">
+      <c r="B58" s="48">
         <v>2</v>
       </c>
-      <c r="C58" s="41"/>
+      <c r="C58" s="48"/>
       <c r="D58" s="11" t="s">
         <v>9</v>
       </c>
@@ -2340,10 +2332,10 @@
       <c r="I58" s="38"/>
     </row>
     <row r="59" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="41">
+      <c r="B59" s="48">
         <v>3</v>
       </c>
-      <c r="C59" s="41"/>
+      <c r="C59" s="48"/>
       <c r="D59" s="11" t="s">
         <v>10</v>
       </c>
@@ -2354,10 +2346,10 @@
       <c r="I59" s="38"/>
     </row>
     <row r="60" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="41">
+      <c r="B60" s="48">
         <v>99</v>
       </c>
-      <c r="C60" s="41"/>
+      <c r="C60" s="48"/>
       <c r="D60" s="11" t="s">
         <v>7</v>
       </c>
@@ -2400,323 +2392,401 @@
     <row r="65" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B66" s="36" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" s="40"/>
+      <c r="B68" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="41"/>
       <c r="D68" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F68" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="I68" s="40"/>
+        <v>88</v>
+      </c>
+      <c r="F68" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I68" s="41"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="43">
-        <v>0</v>
-      </c>
-      <c r="C69" s="43"/>
+      <c r="B69" s="40">
+        <v>0</v>
+      </c>
+      <c r="C69" s="40"/>
       <c r="D69" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F69" s="43">
-        <v>0</v>
-      </c>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43" t="s">
+      <c r="F69" s="40">
+        <v>0</v>
+      </c>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="I69" s="43"/>
+      <c r="I69" s="40"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="43">
+      <c r="B70" s="40">
         <v>11</v>
       </c>
-      <c r="C70" s="43"/>
+      <c r="C70" s="40"/>
       <c r="D70" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F70" s="43">
+        <v>121</v>
+      </c>
+      <c r="F70" s="40">
         <v>11</v>
       </c>
-      <c r="G70" s="43"/>
+      <c r="G70" s="40"/>
       <c r="H70" s="12" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="I70" s="12"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="43">
+      <c r="B71" s="40">
         <v>21</v>
       </c>
-      <c r="C71" s="43"/>
+      <c r="C71" s="40"/>
       <c r="D71" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F71" s="43">
+        <v>122</v>
+      </c>
+      <c r="F71" s="40">
         <v>21</v>
       </c>
-      <c r="G71" s="43"/>
+      <c r="G71" s="40"/>
       <c r="H71" s="12" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="I71" s="12"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="43">
+      <c r="B72" s="40">
         <v>31</v>
       </c>
-      <c r="C72" s="43"/>
+      <c r="C72" s="40"/>
       <c r="D72" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F72" s="44">
+        <v>123</v>
+      </c>
+      <c r="F72" s="42">
         <v>31</v>
       </c>
-      <c r="G72" s="44"/>
+      <c r="G72" s="42"/>
       <c r="H72" s="12" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="I72" s="12"/>
     </row>
     <row r="75" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B75" s="36" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C77" s="40"/>
+      <c r="B77" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="41"/>
       <c r="D77" s="10" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B78" s="43">
-        <v>0</v>
-      </c>
-      <c r="C78" s="43"/>
+      <c r="B78" s="40">
+        <v>0</v>
+      </c>
+      <c r="C78" s="40"/>
       <c r="D78" s="12" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B79" s="43">
+      <c r="B79" s="40">
         <v>1</v>
       </c>
-      <c r="C79" s="43"/>
+      <c r="C79" s="40"/>
       <c r="D79" s="12" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B80" s="43">
+      <c r="B80" s="40">
         <v>2</v>
       </c>
-      <c r="C80" s="43"/>
+      <c r="C80" s="40"/>
       <c r="D80" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B81" s="44">
+      <c r="B81" s="42">
         <v>3</v>
       </c>
-      <c r="C81" s="44"/>
+      <c r="C81" s="42"/>
       <c r="D81" s="12" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B84" s="36" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C86" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="D86" s="40"/>
-      <c r="F86" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="J86" s="40"/>
+        <v>129</v>
+      </c>
+      <c r="C86" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="41"/>
+      <c r="F86" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="J86" s="41"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="15">
         <v>0</v>
       </c>
-      <c r="C87" s="43" t="s">
+      <c r="C87" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="43"/>
-      <c r="F87" s="43">
-        <v>0</v>
-      </c>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="43" t="s">
+      <c r="D87" s="40"/>
+      <c r="F87" s="40">
+        <v>0</v>
+      </c>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="J87" s="43"/>
+      <c r="J87" s="40"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="15">
         <v>11</v>
       </c>
-      <c r="C88" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="D88" s="43"/>
-      <c r="F88" s="43">
+      <c r="C88" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" s="40"/>
+      <c r="F88" s="40">
         <v>1</v>
       </c>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="J88" s="43"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="J88" s="40"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B89" s="15">
         <v>12</v>
       </c>
-      <c r="C89" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="D89" s="43"/>
-      <c r="F89" s="43">
+      <c r="C89" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="D89" s="40"/>
+      <c r="F89" s="40">
         <v>2</v>
       </c>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="J89" s="43"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="J89" s="40"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="15">
         <v>13</v>
       </c>
-      <c r="C90" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="D90" s="43"/>
-      <c r="F90" s="43">
+      <c r="C90" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D90" s="40"/>
+      <c r="F90" s="40">
         <v>3</v>
       </c>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="J90" s="43"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="J90" s="40"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" s="15">
         <v>21</v>
       </c>
-      <c r="C91" s="43" t="s">
+      <c r="C91" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D91" s="43"/>
-      <c r="F91" s="43">
+      <c r="D91" s="40"/>
+      <c r="F91" s="40">
         <v>4</v>
       </c>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="43" t="s">
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="J91" s="43"/>
+      <c r="J91" s="40"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="15">
         <v>31</v>
       </c>
-      <c r="C92" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="D92" s="43"/>
-      <c r="F92" s="44">
+      <c r="C92" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D92" s="40"/>
+      <c r="F92" s="42">
         <v>5</v>
       </c>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="J92" s="44"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="J92" s="42"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="F93" s="43">
+      <c r="F93" s="40">
         <v>6</v>
       </c>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="J93" s="43"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="J93" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="172">
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="K45:L46"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="O45:P46"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
     <mergeCell ref="H68:I68"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="B68:C68"/>
@@ -2741,119 +2811,41 @@
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="E47:I47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="K45:L46"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:P46"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="I92:J92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2868,9 +2860,7 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2884,6 +2874,7 @@
     <col min="8" max="8" width="15.625" customWidth="1"/>
     <col min="9" max="9" width="13.875" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -2891,34 +2882,34 @@
         <v>60</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>64</v>
-      </c>
       <c r="G1" s="30" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2947,13 +2938,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2961,10 +2952,10 @@
         <v>1101011</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="D3" s="34">
         <v>1</v>
@@ -2996,10 +2987,10 @@
         <v>1101012</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
@@ -3031,10 +3022,10 @@
         <v>1101013</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="D5" s="34">
         <v>1</v>
@@ -3075,9 +3066,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3096,16 +3085,16 @@
         <v>61</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3133,7 +3122,7 @@
         <v>1011111</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C3" s="5">
         <v>101</v>
@@ -3153,7 +3142,7 @@
         <v>1021211</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C4" s="5">
         <v>102</v>
@@ -3222,49 +3211,47 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.25" customWidth="1"/>
     <col min="7" max="7" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -3368,13 +3355,13 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
@@ -3393,55 +3380,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q1" s="27" t="s">
         <v>115</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,52 +3436,52 @@
         <v>11</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="I2" s="35" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="L2" s="35" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="O2" s="35" t="s">
         <v>13</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,9 +3604,7 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3632,25 +3617,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3673,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -3681,7 +3666,7 @@
         <v>1111</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="C3" s="26">
         <v>1101011</v>
@@ -3704,7 +3689,7 @@
         <v>1111</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="C4" s="26">
         <v>1101012</v>
@@ -3727,7 +3712,7 @@
         <v>1111</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="C5" s="26">
         <v>1101013</v>
@@ -3770,35 +3755,33 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3826,7 +3809,7 @@
         <v>1111</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="C3" s="15">
         <v>11</v>
@@ -3846,7 +3829,7 @@
         <v>1121</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="C4" s="15">
         <v>11</v>
@@ -3874,9 +3857,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3887,22 +3868,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3930,7 +3911,7 @@
         <v>1031111</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="C3" s="37">
         <v>1</v>
@@ -3958,13 +3939,11 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3973,16 +3952,16 @@
         <v>60</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
